--- a/测试用例编写/登录功能测试.xlsx
+++ b/测试用例编写/登录功能测试.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\研究生\3-校招测试\03-测试基础\9-UI自动化测试\3-TPshopUI自动化测试实战\测试用例编写\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0436F295-A4AE-42FE-8A5A-9AF00F626294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C285A039-D9B9-4348-8BE8-9C1FDF983235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1245" yWindow="1380" windowWidth="24540" windowHeight="13410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1545" yWindow="4710" windowWidth="24540" windowHeight="13410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="73">
   <si>
     <t>用例编号ID</t>
   </si>
@@ -115,10 +115,6 @@
 2.输入密码
 3.输入验证码
 4.点击登录</t>
-  </si>
-  <si>
-    <t>登录成功
-现象:跳转到商城首页,且顶部显示全部用户名</t>
   </si>
   <si>
     <t>tp_login_002</t>
@@ -257,20 +253,122 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>账号:178055915877
+    <r>
+      <t>账号:（空）
+密码:符合规格的密码
+验证:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8888</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>账号:未注册的手机号
+密码:符合规格的密码
+验证:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8888</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>登录失败
+现象:提示"验证码错误</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录失败(手机号、密码正确，验证码为空)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>登录失败
+现象:提示"验证码不能为空!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tp_login_010</t>
+  </si>
+  <si>
+    <t>登录失败(手机号格式错误，手机号有字母)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号:1780559158a
+密码:符合规格的密码
+验证:8888</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tp_login_011</t>
+  </si>
+  <si>
+    <t>登录失败(手机号格式错误，手机号含空格)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号:1780559 586
+密码:符合规格的密码
+验证:8888</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户:1466546375@qq.com
 密码:123123
-验证:6666</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号:178055915877
-密码:（空）
+验证码: 8888</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号:17805591586
+密码:符合规格的密码
 验证:8888</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>账号:178055915877
+      <t>账号:17805591586
 密码:12312</t>
     </r>
     <r>
@@ -298,149 +396,21 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>账号:（空）
-密码:符合规格的密码
-验证:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8888</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>账号:178055915877
-密码:符合规格的密码
-验证:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8888</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>账号:未注册的手机号
-密码:符合规格的密码
-验证:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8888</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">账户:123@qq.com
-密码:123344
-验证码: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8888</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>登录失败
-现象:提示"验证码错误</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号:178055915877
+    <t>账号:17805591586
+密码:（空）
+验证:8888</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号:17805591586
+密码:123123
+验证:6666</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号:17805591586
 密码:123123
 验证:（空）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录失败(手机号、密码正确，验证码为空)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>登录失败
-现象:提示"验证码不能为空!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>tp_login_010</t>
-  </si>
-  <si>
-    <t>登录失败(手机号格式错误，手机号有字母)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号:1780559158a
-密码:符合规格的密码
-验证:8888</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>tp_login_011</t>
-  </si>
-  <si>
-    <t>登录失败(手机号格式错误，手机号含空格)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号:1780559 586
-密码:符合规格的密码
-验证:8888</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -888,8 +858,8 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -992,21 +962,21 @@
         <v>26</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>49</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>24</v>
@@ -1015,7 +985,7 @@
         <v>25</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>27</v>
@@ -1024,24 +994,24 @@
         <v>28</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>29</v>
+        <v>67</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>34</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>27</v>
@@ -1050,218 +1020,218 @@
         <v>28</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>45</v>
+        <v>57</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>38</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>39</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>27</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>44</v>
+        <v>68</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>27</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>27</v>
       </c>
       <c r="F9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>27</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>27</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>27</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>27</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
